--- a/replication_data.xlsx
+++ b/replication_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Nowcasting\Cornwall_Gindelsky_2025-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8DF819-C71F-4A8D-B532-E90048E2884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37437C0-24C4-4D8E-AA30-44BC613C5587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{BC508468-4610-4845-A2F9-8E683A3D2141}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BC508468-4610-4845-A2F9-8E683A3D2141}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,22 +443,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3BEE78-0B69-4B8C-B3BE-E8CF7C97AFFC}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -500,1204 +508,1254 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>46.5</v>
+        <v>46.461591758322612</v>
       </c>
       <c r="C2">
-        <v>5.0999999999999996</v>
+        <v>5.0536085057290885</v>
       </c>
       <c r="D2">
-        <v>9.1999999999999993</v>
+        <v>9.217494751124665</v>
       </c>
       <c r="E2">
-        <v>13.600000000000001</v>
+        <v>13.638717981722467</v>
       </c>
       <c r="F2">
-        <v>19.8</v>
+        <v>19.774912813480864</v>
       </c>
       <c r="G2">
-        <v>52.300000000000004</v>
+        <v>52.315265947942912</v>
       </c>
       <c r="H2">
-        <v>16.900000000000002</v>
+        <v>16.883764629464235</v>
       </c>
       <c r="I2">
-        <v>2.2999999999999998</v>
+        <v>2.3140361662394304</v>
       </c>
       <c r="J2">
-        <v>2.5</v>
+        <v>2.5413800702910234</v>
       </c>
       <c r="K2">
-        <v>8.6999999999999993</v>
+        <v>8.7411411272081949</v>
       </c>
       <c r="L2">
-        <v>2.1</v>
+        <v>2.1284493057891503</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>0.36305429575586051</v>
       </c>
       <c r="N2">
-        <v>12.6</v>
+        <v>12.611787085474349</v>
       </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>0.24010300070754992</v>
       </c>
       <c r="P2">
-        <v>56.000000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>55.96487768665979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>45.989711077505305</v>
       </c>
       <c r="C3">
-        <v>5.0999999999999996</v>
+        <v>5.0669882703781557</v>
       </c>
       <c r="D3">
-        <v>9.4</v>
+        <v>9.381238814680815</v>
       </c>
       <c r="E3">
-        <v>13.8</v>
+        <v>13.801950146980738</v>
       </c>
       <c r="F3">
-        <v>20.100000000000001</v>
+        <v>20.130905199746984</v>
       </c>
       <c r="G3">
-        <v>51.6</v>
+        <v>51.618917568213305</v>
       </c>
       <c r="H3">
-        <v>16.3</v>
+        <v>16.25579611035127</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.5274933004192106</v>
       </c>
       <c r="J3">
-        <v>2.7</v>
+        <v>2.6976237337514317</v>
       </c>
       <c r="K3">
-        <v>9.1999999999999993</v>
+        <v>9.2415296171509276</v>
       </c>
       <c r="L3">
-        <v>2.2999999999999998</v>
+        <v>2.2506143598981438</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>0.34693264836374554</v>
       </c>
       <c r="N3">
-        <v>13.3</v>
+        <v>13.261278090980861</v>
       </c>
       <c r="O3">
-        <v>0.4</v>
+        <v>0.35471639367959878</v>
       </c>
       <c r="P3">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>55.082229709443908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>44.9</v>
+        <v>44.917506292702491</v>
       </c>
       <c r="C4">
-        <v>5.0999999999999996</v>
+        <v>5.0563228349687792</v>
       </c>
       <c r="D4">
-        <v>9.5</v>
+        <v>9.5361669917664091</v>
       </c>
       <c r="E4">
-        <v>14.2</v>
+        <v>14.151804222102934</v>
       </c>
       <c r="F4">
-        <v>20.599999999999998</v>
+        <v>20.578346869600672</v>
       </c>
       <c r="G4">
-        <v>50.7</v>
+        <v>50.677359081561193</v>
       </c>
       <c r="H4">
-        <v>15.299999999999999</v>
+        <v>15.32896174863388</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>2.7322404371584699</v>
       </c>
       <c r="J4">
-        <v>2.8000000000000003</v>
+        <v>2.8382513661202187</v>
       </c>
       <c r="K4">
-        <v>9.5</v>
+        <v>9.5092896174863384</v>
       </c>
       <c r="L4">
-        <v>2.2999999999999998</v>
+        <v>2.2775956284153005</v>
       </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>0.40765027322404368</v>
       </c>
       <c r="N4">
-        <v>14.000000000000002</v>
+        <v>14.045901639344264</v>
       </c>
       <c r="O4">
-        <v>0.6</v>
+        <v>0.58469945355191255</v>
       </c>
       <c r="P4">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54.598907103825134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>45.300000000000004</v>
+        <v>45.283101107647525</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4.9842907874178461</v>
       </c>
       <c r="D5">
-        <v>9.4</v>
+        <v>9.4158020265465776</v>
       </c>
       <c r="E5">
-        <v>14.000000000000002</v>
+        <v>14.028819341070603</v>
       </c>
       <c r="F5">
-        <v>20.7</v>
+        <v>20.697916344134441</v>
       </c>
       <c r="G5">
-        <v>50.9</v>
+        <v>50.873171500830537</v>
       </c>
       <c r="H5">
-        <v>15.1</v>
+        <v>15.140585120968591</v>
       </c>
       <c r="I5">
-        <v>2.8000000000000003</v>
+        <v>2.7895547258959272</v>
       </c>
       <c r="J5">
-        <v>2.9000000000000004</v>
+        <v>2.9182222784703327</v>
       </c>
       <c r="K5">
-        <v>9.5</v>
+        <v>9.4655023307810762</v>
       </c>
       <c r="L5">
-        <v>2.4</v>
+        <v>2.3951148516104541</v>
       </c>
       <c r="M5">
-        <v>0.5</v>
+        <v>0.45244573815098399</v>
       </c>
       <c r="N5">
-        <v>14.2</v>
+        <v>14.209327342909575</v>
       </c>
       <c r="O5">
-        <v>0.6</v>
+        <v>0.56107490139003147</v>
       </c>
       <c r="P5">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54.191187327300725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>45.7</v>
+        <v>45.725894231354772</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4.9757652573971001</v>
       </c>
       <c r="D6">
-        <v>9.4</v>
+        <v>9.4003615694741747</v>
       </c>
       <c r="E6">
-        <v>13.8</v>
+        <v>13.806672191257864</v>
       </c>
       <c r="F6">
-        <v>20.3</v>
+        <v>20.306667966571133</v>
       </c>
       <c r="G6">
-        <v>51.5</v>
+        <v>51.510533015299728</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14.963208498487408</v>
       </c>
       <c r="I6">
-        <v>2.9000000000000004</v>
+        <v>2.8933994948032629</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>3.0391677233199212</v>
       </c>
       <c r="K6">
-        <v>9.6</v>
+        <v>9.6137141944308553</v>
       </c>
       <c r="L6">
-        <v>2.4</v>
+        <v>2.424145608482513</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0.46625864874848993</v>
       </c>
       <c r="N6">
-        <v>14.2</v>
+        <v>14.18943879232021</v>
       </c>
       <c r="O6">
-        <v>0.4</v>
+        <v>0.36342215876755957</v>
       </c>
       <c r="P6">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54.123942930740121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>46.1</v>
+        <v>46.143419129603259</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4.9614172807242456</v>
       </c>
       <c r="D7">
-        <v>9.4</v>
+        <v>9.3659630521329635</v>
       </c>
       <c r="E7">
-        <v>13.700000000000001</v>
+        <v>13.746623977606804</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>19.971706850354739</v>
       </c>
       <c r="G7">
-        <v>52</v>
+        <v>51.954288839181238</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>15.516636481732585</v>
       </c>
       <c r="I7">
-        <v>2.9000000000000004</v>
+        <v>2.8863750580783414</v>
       </c>
       <c r="J7">
-        <v>3.1</v>
+        <v>3.1490313954921723</v>
       </c>
       <c r="K7">
-        <v>9.3000000000000007</v>
+        <v>9.2840007206455475</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>2.0965096101876521</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>0.51298584310787876</v>
       </c>
       <c r="N7">
-        <v>14.399999999999999</v>
+        <v>14.38161974568798</v>
       </c>
       <c r="O7">
-        <v>0.3</v>
+        <v>0.30153326822237603</v>
       </c>
       <c r="P7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53.966869269208516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>46.5</v>
+        <v>46.489051224059949</v>
       </c>
       <c r="C8">
-        <v>5.2</v>
+        <v>5.1691570606470734</v>
       </c>
       <c r="D8">
-        <v>9.3000000000000007</v>
+        <v>9.3044571544960313</v>
       </c>
       <c r="E8">
-        <v>13.4</v>
+        <v>13.387511340321003</v>
       </c>
       <c r="F8">
-        <v>19.600000000000001</v>
+        <v>19.64792437001525</v>
       </c>
       <c r="G8">
-        <v>52.5</v>
+        <v>52.490950074520647</v>
       </c>
       <c r="H8">
-        <v>16.8</v>
+        <v>16.802335869757563</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>2.6464342594231112</v>
       </c>
       <c r="J8">
-        <v>3.5000000000000004</v>
+        <v>3.5312334100159264</v>
       </c>
       <c r="K8">
-        <v>9.3000000000000007</v>
+        <v>9.2983542735798981</v>
       </c>
       <c r="L8">
-        <v>1.6</v>
+        <v>1.6023712617235886</v>
       </c>
       <c r="M8">
-        <v>0.5</v>
+        <v>0.50168111838612639</v>
       </c>
       <c r="N8">
-        <v>14.299999999999999</v>
+        <v>14.278888692266856</v>
       </c>
       <c r="O8">
-        <v>0.3</v>
+        <v>0.26897894178021586</v>
       </c>
       <c r="P8">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53.589630153955049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>46.6</v>
+        <v>46.570315869215619</v>
       </c>
       <c r="C9">
-        <v>5.0999999999999996</v>
+        <v>5.1061983124478658</v>
       </c>
       <c r="D9">
-        <v>9.3000000000000007</v>
+        <v>9.269649694642796</v>
       </c>
       <c r="E9">
-        <v>13.4</v>
+        <v>13.410293708634782</v>
       </c>
       <c r="F9">
-        <v>19.600000000000001</v>
+        <v>19.615640382356673</v>
       </c>
       <c r="G9">
-        <v>52.6</v>
+        <v>52.598217901917877</v>
       </c>
       <c r="H9">
-        <v>17.599999999999998</v>
+        <v>17.644002313088226</v>
       </c>
       <c r="I9">
-        <v>2.7</v>
+        <v>2.7170405879937309</v>
       </c>
       <c r="J9">
-        <v>3.5999999999999996</v>
+        <v>3.5886390492872162</v>
       </c>
       <c r="K9">
-        <v>8.3000000000000007</v>
+        <v>8.3422029651109195</v>
       </c>
       <c r="L9">
-        <v>1.6</v>
+        <v>1.5613345513363113</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0.50368334157440853</v>
       </c>
       <c r="N9">
-        <v>14.499999999999998</v>
+        <v>14.482781740012236</v>
       </c>
       <c r="O9">
-        <v>0.3</v>
+        <v>0.27405067004131711</v>
       </c>
       <c r="P9">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53.606657671323568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>45.9</v>
+        <v>45.868268091458447</v>
       </c>
       <c r="C10">
-        <v>5.2</v>
+        <v>5.168019602147</v>
       </c>
       <c r="D10">
-        <v>9.3000000000000007</v>
+        <v>9.3299071967557783</v>
       </c>
       <c r="E10">
-        <v>13.700000000000001</v>
+        <v>13.669525188937648</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>19.973629094765151</v>
       </c>
       <c r="G10">
-        <v>51.9</v>
+        <v>51.858918917394426</v>
       </c>
       <c r="H10">
-        <v>17.299999999999997</v>
+        <v>17.314919883789244</v>
       </c>
       <c r="I10">
-        <v>2.7</v>
+        <v>2.7225830335514298</v>
       </c>
       <c r="J10">
-        <v>3.6999999999999997</v>
+        <v>3.7148812541748151</v>
       </c>
       <c r="K10">
-        <v>7.7</v>
+        <v>7.7283372365339567</v>
       </c>
       <c r="L10">
-        <v>2.2999999999999998</v>
+        <v>2.3362868892698199</v>
       </c>
       <c r="M10">
-        <v>1.3</v>
+        <v>1.2868490306381128</v>
       </c>
       <c r="N10">
-        <v>15.7</v>
+        <v>15.734324826770321</v>
       </c>
       <c r="O10">
-        <v>0.4</v>
+        <v>0.41124443693313051</v>
       </c>
       <c r="P10">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52.585367423968066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>44.5</v>
+        <v>44.531640615227715</v>
       </c>
       <c r="C11">
-        <v>5.3</v>
+        <v>5.3433012602021357</v>
       </c>
       <c r="D11">
-        <v>9.8000000000000007</v>
+        <v>9.8175655432748954</v>
       </c>
       <c r="E11">
-        <v>13.900000000000002</v>
+        <v>13.894762685393141</v>
       </c>
       <c r="F11">
-        <v>20.5</v>
+        <v>20.486098689778849</v>
       </c>
       <c r="G11">
-        <v>50.5</v>
+        <v>50.458271821350984</v>
       </c>
       <c r="H11">
-        <v>15.2</v>
+        <v>15.237408521677152</v>
       </c>
       <c r="I11">
-        <v>3.1</v>
+        <v>3.0632288221984632</v>
       </c>
       <c r="J11">
-        <v>4.1000000000000005</v>
+        <v>4.085962687618621</v>
       </c>
       <c r="K11">
-        <v>7.8</v>
+        <v>7.7749322459534049</v>
       </c>
       <c r="L11">
-        <v>2.9000000000000004</v>
+        <v>2.8808937732580788</v>
       </c>
       <c r="M11">
-        <v>0.6</v>
+        <v>0.63651507993734302</v>
       </c>
       <c r="N11">
-        <v>17.8</v>
+        <v>17.791756798196538</v>
       </c>
       <c r="O11">
-        <v>1.0999999999999999</v>
+        <v>1.0873799282262941</v>
       </c>
       <c r="P11">
-        <v>51.800000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51.792270651516283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>44.967148540176652</v>
       </c>
       <c r="C12">
-        <v>5.3</v>
+        <v>5.3334751389179216</v>
       </c>
       <c r="D12">
-        <v>9.8000000000000007</v>
+        <v>9.8377555202993356</v>
       </c>
       <c r="E12">
-        <v>13.900000000000002</v>
+        <v>13.906612334279655</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>19.975226741603738</v>
       </c>
       <c r="G12">
-        <v>50.9</v>
+        <v>50.946930264899336</v>
       </c>
       <c r="H12">
-        <v>13.900000000000002</v>
+        <v>13.918576684771356</v>
       </c>
       <c r="I12">
-        <v>3.2</v>
+        <v>3.160887501393689</v>
       </c>
       <c r="J12">
-        <v>4.1000000000000005</v>
+        <v>4.0886864278546735</v>
       </c>
       <c r="K12">
-        <v>8.7999999999999989</v>
+        <v>8.8280266951244766</v>
       </c>
       <c r="L12">
-        <v>3.5000000000000004</v>
+        <v>3.4539604670053992</v>
       </c>
       <c r="M12">
-        <v>1.0999999999999999</v>
+        <v>1.1491964385263529</v>
       </c>
       <c r="N12">
-        <v>18.5</v>
+        <v>18.517751620661642</v>
       </c>
       <c r="O12">
-        <v>1.0999999999999999</v>
+        <v>1.1061911663985473</v>
       </c>
       <c r="P12">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.750203080451719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>45.975077834794909</v>
       </c>
       <c r="C13">
-        <v>5.2</v>
+        <v>5.1900492635189961</v>
       </c>
       <c r="D13">
-        <v>9.5</v>
+        <v>9.5054766626663625</v>
       </c>
       <c r="E13">
-        <v>13.600000000000001</v>
+        <v>13.557820753179984</v>
       </c>
       <c r="F13">
-        <v>19.8</v>
+        <v>19.784872741673048</v>
       </c>
       <c r="G13">
-        <v>52</v>
+        <v>51.961780578961616</v>
       </c>
       <c r="H13">
-        <v>14.299999999999999</v>
+        <v>14.324247159944701</v>
       </c>
       <c r="I13">
-        <v>3.1</v>
+        <v>3.0504297649816672</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>4.0241630101580812</v>
       </c>
       <c r="K13">
-        <v>9.1999999999999993</v>
+        <v>9.2286770451403495</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>3.8055238324217102</v>
       </c>
       <c r="M13">
-        <v>1.0999999999999999</v>
+        <v>1.1375247941335578</v>
       </c>
       <c r="N13">
-        <v>17.7</v>
+        <v>17.721794794734627</v>
       </c>
       <c r="O13">
-        <v>0.8</v>
+        <v>0.8054336719360462</v>
       </c>
       <c r="P13">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>49.785117509166312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>46.9</v>
+        <v>46.949064725931535</v>
       </c>
       <c r="C14">
-        <v>5.0999999999999996</v>
+        <v>5.1187854639215411</v>
       </c>
       <c r="D14">
-        <v>9.3000000000000007</v>
+        <v>9.321146076060721</v>
       </c>
       <c r="E14">
-        <v>13.3</v>
+        <v>13.26626171662709</v>
       </c>
       <c r="F14">
-        <v>19.400000000000002</v>
+        <v>19.435082624107597</v>
       </c>
       <c r="G14">
-        <v>52.900000000000006</v>
+        <v>52.858724119283053</v>
       </c>
       <c r="H14">
-        <v>15.1</v>
+        <v>15.114457744758511</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2.9997557085171511</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3.9855436922502125</v>
       </c>
       <c r="K14">
-        <v>9.3000000000000007</v>
+        <v>9.3398381928178313</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.8404058112632748</v>
       </c>
       <c r="M14">
-        <v>0.70000000000000007</v>
+        <v>0.70916380462429418</v>
       </c>
       <c r="N14">
-        <v>17</v>
+        <v>16.978258058026412</v>
       </c>
       <c r="O14">
-        <v>0.6</v>
+        <v>0.60066964606475159</v>
       </c>
       <c r="P14">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>49.778700656712992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>46.039608525273614</v>
       </c>
       <c r="C15">
-        <v>5.0999999999999996</v>
+        <v>5.1135600784243502</v>
       </c>
       <c r="D15">
-        <v>9.4</v>
+        <v>9.4295146917622699</v>
       </c>
       <c r="E15">
-        <v>13.600000000000001</v>
+        <v>13.557052898736528</v>
       </c>
       <c r="F15">
-        <v>19.600000000000001</v>
+        <v>19.578480306700563</v>
       </c>
       <c r="G15">
-        <v>52.300000000000004</v>
+        <v>52.321392024376301</v>
       </c>
       <c r="H15">
-        <v>14.099999999999998</v>
+        <v>14.096440350278632</v>
       </c>
       <c r="I15">
-        <v>3.1</v>
+        <v>3.127487774365973</v>
       </c>
       <c r="J15">
-        <v>4.1000000000000005</v>
+        <v>4.0714204480837024</v>
       </c>
       <c r="K15">
-        <v>9.6</v>
+        <v>9.6077846013874684</v>
       </c>
       <c r="L15">
-        <v>4.1000000000000005</v>
+        <v>4.1133572159672473</v>
       </c>
       <c r="M15">
-        <v>0.70000000000000007</v>
+        <v>0.69373365176845214</v>
       </c>
       <c r="N15">
-        <v>17.2</v>
+        <v>17.231746844080519</v>
       </c>
       <c r="O15">
-        <v>0.4</v>
+        <v>0.44424542249516658</v>
       </c>
       <c r="P15">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.56579097008985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>46.5</v>
+        <v>46.527610517002202</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4.9659980038898253</v>
       </c>
       <c r="D16">
-        <v>9.4</v>
+        <v>9.3862896789002317</v>
       </c>
       <c r="E16">
-        <v>13.3</v>
+        <v>13.318297230841953</v>
       </c>
       <c r="F16">
-        <v>19.600000000000001</v>
+        <v>19.573910138174615</v>
       </c>
       <c r="G16">
-        <v>52.800000000000004</v>
+        <v>52.755504948193362</v>
       </c>
       <c r="H16">
-        <v>14.7</v>
+        <v>14.727984794475146</v>
       </c>
       <c r="I16">
-        <v>3.3000000000000003</v>
+        <v>3.3204591419159768</v>
       </c>
       <c r="J16">
-        <v>4.1000000000000005</v>
+        <v>4.0584141070474358</v>
       </c>
       <c r="K16">
-        <v>9.3000000000000007</v>
+        <v>9.2667122110916456</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>4.0482680717798178</v>
       </c>
       <c r="M16">
-        <v>0.8</v>
+        <v>0.77786270385075862</v>
       </c>
       <c r="N16">
-        <v>17.2</v>
+        <v>17.191442157452936</v>
       </c>
       <c r="O16">
-        <v>0.2</v>
+        <v>0.24012283466697329</v>
       </c>
       <c r="P16">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.569868980864577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>46.032664469395215</v>
       </c>
       <c r="C17">
-        <v>5.2</v>
+        <v>5.1655623957791015</v>
       </c>
       <c r="D17">
-        <v>9.4</v>
+        <v>9.4022680956305411</v>
       </c>
       <c r="E17">
-        <v>13.4</v>
+        <v>13.420896459374298</v>
       </c>
       <c r="F17">
-        <v>19.600000000000001</v>
+        <v>19.615840241469765</v>
       </c>
       <c r="G17">
-        <v>52.400000000000006</v>
+        <v>52.395432807746303</v>
       </c>
       <c r="H17">
-        <v>15.2</v>
+        <v>15.152161409359104</v>
       </c>
       <c r="I17">
-        <v>3.5000000000000004</v>
+        <v>3.4632957857525994</v>
       </c>
       <c r="J17">
-        <v>4.1000000000000005</v>
+        <v>4.1030910512676346</v>
       </c>
       <c r="K17">
-        <v>8.6999999999999993</v>
+        <v>8.7096169629758879</v>
       </c>
       <c r="L17">
-        <v>3.9</v>
+        <v>3.88659467354285</v>
       </c>
       <c r="M17">
-        <v>0.8</v>
+        <v>0.81363862553881749</v>
       </c>
       <c r="N17">
-        <v>17.399999999999999</v>
+        <v>17.354608141556319</v>
       </c>
       <c r="O17">
-        <v>0.2</v>
+        <v>0.21003379928523883</v>
       </c>
       <c r="P17">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.792635245610299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>45.4</v>
+        <v>45.368999616301494</v>
       </c>
       <c r="C18">
-        <v>5.3</v>
+        <v>5.2511710157613916</v>
       </c>
       <c r="D18">
-        <v>9.5</v>
+        <v>9.5397474318537316</v>
       </c>
       <c r="E18">
-        <v>13.5</v>
+        <v>13.523924041707392</v>
       </c>
       <c r="F18">
-        <v>19.600000000000001</v>
+        <v>19.649522452880632</v>
       </c>
       <c r="G18">
-        <v>52</v>
+        <v>52.035635057796846</v>
       </c>
       <c r="H18">
-        <v>15.2</v>
+        <v>15.202955745639709</v>
       </c>
       <c r="I18">
-        <v>3.5000000000000004</v>
+        <v>3.5423629600256801</v>
       </c>
       <c r="J18">
-        <v>4.2</v>
+        <v>4.1673747616080368</v>
       </c>
       <c r="K18">
-        <v>8.5</v>
+        <v>8.4921039546315704</v>
       </c>
       <c r="L18">
-        <v>3.9</v>
+        <v>3.8942074686707331</v>
       </c>
       <c r="M18">
-        <v>0.8</v>
+        <v>0.82327838516588303</v>
       </c>
       <c r="N18">
-        <v>17.5</v>
+        <v>17.478930241633464</v>
       </c>
       <c r="O18">
-        <v>0.2</v>
+        <v>0.20141367221183681</v>
       </c>
       <c r="P18">
-        <v>50.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.92744701876294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>46.300000000000004</v>
+        <v>46.307812906540505</v>
       </c>
       <c r="C19">
-        <v>5.2</v>
+        <v>5.1880523891683668</v>
       </c>
       <c r="D19">
-        <v>9.4</v>
+        <v>9.3781623475770619</v>
       </c>
       <c r="E19">
-        <v>13.4</v>
+        <v>13.437777068119615</v>
       </c>
       <c r="F19">
-        <v>19.5</v>
+        <v>19.518749757424924</v>
       </c>
       <c r="G19">
-        <v>52.5</v>
+        <v>52.477258437710027</v>
       </c>
       <c r="H19">
-        <v>15.7</v>
+        <v>15.669635355402454</v>
       </c>
       <c r="I19">
-        <v>3.4000000000000004</v>
+        <v>3.4429987757159664</v>
       </c>
       <c r="J19">
-        <v>4.2</v>
+        <v>4.1517632090645034</v>
       </c>
       <c r="K19">
-        <v>8.6</v>
+        <v>8.5735890726648591</v>
       </c>
       <c r="L19">
-        <v>3.9</v>
+        <v>3.8528938713781602</v>
       </c>
       <c r="M19">
-        <v>0.8</v>
+        <v>0.82159060902129299</v>
       </c>
       <c r="N19">
-        <v>17.100000000000001</v>
+        <v>17.13817605684519</v>
       </c>
       <c r="O19">
-        <v>0.2</v>
+        <v>0.181242048155172</v>
       </c>
       <c r="P19">
-        <v>50.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.858199102191705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>46.2</v>
+        <v>46.248850877892238</v>
       </c>
       <c r="C20">
-        <v>5.0999999999999996</v>
+        <v>5.125365536054459</v>
       </c>
       <c r="D20">
-        <v>9.5</v>
+        <v>9.5025453030014564</v>
       </c>
       <c r="E20">
-        <v>13.5</v>
+        <v>13.46100573749853</v>
       </c>
       <c r="F20">
-        <v>19.400000000000002</v>
+        <v>19.371073260217461</v>
       </c>
       <c r="G20">
-        <v>52.5</v>
+        <v>52.540010163228104</v>
       </c>
       <c r="H20">
-        <v>15.9</v>
+        <v>15.91378464417339</v>
       </c>
       <c r="I20">
-        <v>3.4000000000000004</v>
+        <v>3.3648634771396941</v>
       </c>
       <c r="J20">
-        <v>4.2</v>
+        <v>4.1852557592907429</v>
       </c>
       <c r="K20">
-        <v>8.5</v>
+        <v>8.530824614050502</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.8309695233965839</v>
       </c>
       <c r="M20">
-        <v>0.8</v>
+        <v>0.84606519779555234</v>
       </c>
       <c r="N20">
-        <v>17</v>
+        <v>16.980066407275135</v>
       </c>
       <c r="O20">
-        <v>0.2</v>
+        <v>0.15746054928629294</v>
       </c>
       <c r="P20">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.774181033990942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21">
-        <v>45.1</v>
+        <v>45.138911014287643</v>
       </c>
       <c r="C21">
-        <v>5.2</v>
+        <v>5.1883515465463947</v>
       </c>
       <c r="D21">
-        <v>9.5</v>
+        <v>9.5270919715438147</v>
       </c>
       <c r="E21">
-        <v>13.600000000000001</v>
+        <v>13.64105942448095</v>
       </c>
       <c r="F21">
-        <v>19.600000000000001</v>
+        <v>19.603104810729317</v>
       </c>
       <c r="G21">
-        <v>52</v>
+        <v>52.040392246699533</v>
       </c>
       <c r="H21">
-        <v>16.100000000000001</v>
+        <v>16.064738171996165</v>
       </c>
       <c r="I21">
-        <v>3.3000000000000003</v>
+        <v>3.3436438093578462</v>
       </c>
       <c r="J21">
-        <v>4.3</v>
+        <v>4.3048052626993112</v>
       </c>
       <c r="K21">
-        <v>8.5</v>
+        <v>8.4723795416920797</v>
       </c>
       <c r="L21">
-        <v>3.6999999999999997</v>
+        <v>3.7488019517295461</v>
       </c>
       <c r="M21">
-        <v>0.89999999999999991</v>
+        <v>0.85878278295721866</v>
       </c>
       <c r="N21">
-        <v>17.100000000000001</v>
+        <v>17.138080508843771</v>
       </c>
       <c r="O21">
-        <v>0.1</v>
+        <v>0.14975603380674393</v>
       </c>
       <c r="P21">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.781454212773369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
       <c r="B22">
-        <v>43.3</v>
+        <v>43.324594926007087</v>
       </c>
       <c r="C22">
-        <v>5.4</v>
+        <v>5.4332610572693847</v>
       </c>
       <c r="D22">
-        <v>9.9</v>
+        <v>9.9048416558359555</v>
       </c>
       <c r="E22">
-        <v>14.000000000000002</v>
+        <v>14.028783269948891</v>
       </c>
       <c r="F22">
-        <v>19.8</v>
+        <v>19.755583969673879</v>
       </c>
       <c r="G22">
-        <v>50.9</v>
+        <v>50.87753004727189</v>
       </c>
       <c r="H22">
-        <v>14.799999999999999</v>
+        <v>14.843961039953927</v>
       </c>
       <c r="I22">
-        <v>3.4000000000000004</v>
+        <v>3.3516648742870836</v>
       </c>
       <c r="J22">
-        <v>4.2</v>
+        <v>4.1814261904883256</v>
       </c>
       <c r="K22">
-        <v>8.1</v>
+        <v>8.1243214866387028</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.7619583998042829</v>
       </c>
       <c r="M22">
-        <v>2.1999999999999997</v>
+        <v>2.1951977818665553</v>
       </c>
       <c r="N22">
-        <v>21.6</v>
+        <v>21.553406965305992</v>
       </c>
       <c r="O22">
-        <v>2.7</v>
+        <v>2.694175870663249</v>
       </c>
       <c r="P22">
-        <v>48.199999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>48.244912105442893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
       <c r="B23">
-        <v>43.9</v>
+        <v>43.946497338684445</v>
       </c>
       <c r="C23">
-        <v>5.4</v>
+        <v>5.4171116092790159</v>
       </c>
       <c r="D23">
-        <v>9.9</v>
+        <v>9.9087815366115048</v>
       </c>
       <c r="E23">
-        <v>13.900000000000002</v>
+        <v>13.931240691968084</v>
       </c>
       <c r="F23">
-        <v>19.400000000000002</v>
+        <v>19.386765464882799</v>
       </c>
       <c r="G23">
-        <v>51.4</v>
+        <v>51.356100697258597</v>
       </c>
       <c r="H23">
-        <v>14.799999999999999</v>
+        <v>14.849552977427111</v>
       </c>
       <c r="I23">
-        <v>3.4000000000000004</v>
+        <v>3.4384556128761181</v>
       </c>
       <c r="J23">
-        <v>4.1000000000000005</v>
+        <v>4.103270384462756</v>
       </c>
       <c r="K23">
-        <v>8.5</v>
+        <v>8.474987744811969</v>
       </c>
       <c r="L23">
-        <v>3.5999999999999996</v>
+        <v>3.6055930343845555</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3.9940241368846143</v>
       </c>
       <c r="N23">
-        <v>21.7</v>
+        <v>21.726464203179347</v>
       </c>
       <c r="O23">
-        <v>1.5</v>
+        <v>1.4813604425873621</v>
       </c>
       <c r="P23">
-        <v>48.199999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>48.159854338336565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
       <c r="B24">
-        <v>45.2</v>
+        <v>45.174543063081515</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>5.0407268082909793</v>
       </c>
       <c r="D24">
-        <v>9.6</v>
+        <v>9.5830954973167639</v>
       </c>
       <c r="E24">
-        <v>13.700000000000001</v>
+        <v>13.672364181234398</v>
       </c>
       <c r="F24">
-        <v>19.5</v>
+        <v>19.451312493777074</v>
       </c>
       <c r="G24">
-        <v>52.300000000000004</v>
+        <v>52.252501019380773</v>
       </c>
       <c r="H24">
-        <v>15.7</v>
+        <v>15.727356273965656</v>
       </c>
       <c r="I24">
-        <v>3.6999999999999997</v>
+        <v>3.6869196745876889</v>
       </c>
       <c r="J24">
-        <v>4.2</v>
+        <v>4.2328952550828696</v>
       </c>
       <c r="K24">
-        <v>8.5</v>
+        <v>8.4820882886879811</v>
       </c>
       <c r="L24">
-        <v>3.9</v>
+        <v>3.9399879577525359</v>
       </c>
       <c r="M24">
-        <v>1.6</v>
+        <v>1.5519106881736979</v>
       </c>
       <c r="N24">
-        <v>18.7</v>
+        <v>18.738823572020333</v>
       </c>
       <c r="O24">
-        <v>0.1</v>
+        <v>0.10774642467483667</v>
       </c>
       <c r="P24">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.356061189104025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25">
-        <v>45.800000000000004</v>
+        <v>45.835385819605975</v>
       </c>
       <c r="C25">
-        <v>5.3</v>
+        <v>5.3364150191850843</v>
       </c>
       <c r="D25">
-        <v>9.6</v>
+        <v>9.6214798929173</v>
       </c>
       <c r="E25">
-        <v>13.5</v>
+        <v>13.483472209545255</v>
       </c>
       <c r="F25">
-        <v>19</v>
+        <v>18.982244879832642</v>
       </c>
       <c r="G25">
-        <v>52.6</v>
+        <v>52.576387998519714</v>
       </c>
       <c r="H25">
-        <v>16.3</v>
+        <v>16.335434248477725</v>
       </c>
       <c r="I25">
-        <v>3.8</v>
+        <v>3.7521632304241002</v>
       </c>
       <c r="J25">
-        <v>4.3</v>
+        <v>4.3136417049460531</v>
       </c>
       <c r="K25">
-        <v>8.3000000000000007</v>
+        <v>8.328170067300503</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>4.2264715308193566</v>
       </c>
       <c r="M25">
-        <v>0.8</v>
+        <v>0.81743403482533916</v>
       </c>
       <c r="N25">
-        <v>18.2</v>
+        <v>18.237367802585194</v>
       </c>
       <c r="O25">
-        <v>0.1</v>
+        <v>0.14186518534344622</v>
       </c>
       <c r="P25">
-        <v>50.1</v>
+        <v>50.102339493643846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45.835385819605975</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.3364150191850843</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.6214798929173</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13.483472209545255</v>
+      </c>
+      <c r="F26" s="1">
+        <v>18.982244879832642</v>
+      </c>
+      <c r="G26" s="1">
+        <v>52.576387998519714</v>
+      </c>
+      <c r="H26">
+        <v>15.998021832804335</v>
+      </c>
+      <c r="I26">
+        <v>3.7564908611107737</v>
+      </c>
+      <c r="J26">
+        <v>4.3831807144912904</v>
+      </c>
+      <c r="K26">
+        <v>8.1311589708666236</v>
+      </c>
+      <c r="L26">
+        <v>4.2842723547080785</v>
+      </c>
+      <c r="M26">
+        <v>0.86061623151041988</v>
+      </c>
+      <c r="N26">
+        <v>18.398981730328789</v>
+      </c>
+      <c r="O26">
+        <v>0.14349819411170969</v>
+      </c>
+      <c r="P26">
+        <v>50.269363135557157</v>
       </c>
     </row>
   </sheetData>
